--- a/Q_Dataset.xlsx
+++ b/Q_Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phongsathorn\Desktop\LLM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A83094-FD04-41AA-BC29-57D53DCE5FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4953F1E7-AC04-4334-956E-568F2C87AD6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F7D8BF9C-2D4D-43A1-AF12-ED4C5F225226}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="1699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="1698">
   <si>
     <t xml:space="preserve"> เทคโนโลยี 5G: การเปลี่ยนแปลงในชีวิตประจำวัน</t>
   </si>
@@ -432,9 +432,6 @@
   </si>
   <si>
     <t xml:space="preserve"> การพัฒนาการเรียนการสอนในยุคดิจิทัล</t>
-  </si>
-  <si>
-    <t>###  **สุขภาพ (ขยายเพิ่มเติม)**</t>
   </si>
   <si>
     <t xml:space="preserve"> การรักษาด้วยยาที่มีประสิทธิภาพสูง</t>
@@ -5505,10 +5502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE7D750-F781-4188-9D17-DB1BB2A95D55}">
-  <dimension ref="A1:A1701"/>
+  <dimension ref="A1:A1700"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1680" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
+      <selection activeCell="E205" sqref="E205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -5543,227 +5540,227 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.4">
@@ -5793,227 +5790,227 @@
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.4">
@@ -6043,227 +6040,227 @@
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.4">
@@ -6273,7 +6270,7 @@
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.4">
@@ -6293,282 +6290,282 @@
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
-        <v>132</v>
+        <v>38</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A208" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A209" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A210" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A211" t="s">
-        <v>300</v>
+        <v>366</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.4">
@@ -6613,12 +6610,12 @@
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A220" t="s">
-        <v>375</v>
+        <v>949</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A221" t="s">
-        <v>950</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.4">
@@ -6663,12 +6660,12 @@
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A230" t="s">
-        <v>1024</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A231" t="s">
-        <v>1599</v>
+        <v>671</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.4">
@@ -6713,12 +6710,12 @@
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A240" t="s">
-        <v>680</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A241" t="s">
-        <v>1600</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.4">
@@ -6763,62 +6760,62 @@
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A250" t="s">
-        <v>1329</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A251" t="s">
-        <v>1664</v>
+        <v>39</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A252" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A253" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A254" t="s">
-        <v>5</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A255" t="s">
-        <v>1665</v>
+        <v>133</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A256" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A257" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A258" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A259" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A260" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A261" t="s">
-        <v>301</v>
+        <v>375</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.4">
@@ -6863,12 +6860,12 @@
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A270" t="s">
-        <v>384</v>
+        <v>950</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A271" t="s">
-        <v>951</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.4">
@@ -6913,12 +6910,12 @@
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A280" t="s">
-        <v>1033</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A281" t="s">
-        <v>1601</v>
+        <v>680</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.4">
@@ -6963,12 +6960,12 @@
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A290" t="s">
-        <v>689</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A291" t="s">
-        <v>1602</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.4">
@@ -7013,62 +7010,62 @@
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A300" t="s">
-        <v>1338</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A301" t="s">
-        <v>1666</v>
+        <v>40</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A302" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A303" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A304" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A305" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A306" t="s">
-        <v>135</v>
+        <v>168</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A307" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A308" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A309" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A310" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A311" t="s">
-        <v>302</v>
+        <v>384</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.4">
@@ -7113,12 +7110,12 @@
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A320" t="s">
-        <v>393</v>
+        <v>951</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A321" t="s">
-        <v>952</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.4">
@@ -7163,12 +7160,12 @@
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A330" t="s">
-        <v>1042</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A331" t="s">
-        <v>1603</v>
+        <v>689</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.4">
@@ -7213,12 +7210,12 @@
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A340" t="s">
-        <v>698</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A341" t="s">
-        <v>1604</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.4">
@@ -7263,62 +7260,62 @@
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A350" t="s">
-        <v>1347</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A351" t="s">
-        <v>1667</v>
+        <v>41</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A352" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A353" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A354" t="s">
-        <v>7</v>
+        <v>393</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A355" t="s">
-        <v>394</v>
+        <v>135</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A356" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A357" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A358" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A359" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A360" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A361" t="s">
-        <v>303</v>
+        <v>394</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.4">
@@ -7363,12 +7360,12 @@
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A370" t="s">
-        <v>403</v>
+        <v>952</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A371" t="s">
-        <v>953</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.4">
@@ -7413,12 +7410,12 @@
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A380" t="s">
-        <v>1051</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A381" t="s">
-        <v>1605</v>
+        <v>698</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.4">
@@ -7463,12 +7460,12 @@
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A390" t="s">
-        <v>707</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A391" t="s">
-        <v>1606</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.4">
@@ -7513,62 +7510,62 @@
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A400" t="s">
-        <v>1356</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A401" t="s">
-        <v>1668</v>
+        <v>42</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A402" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A403" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A404" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A405" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A406" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A407" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A408" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A409" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A410" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A411" t="s">
-        <v>304</v>
+        <v>403</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.4">
@@ -7613,12 +7610,12 @@
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A420" t="s">
-        <v>412</v>
+        <v>953</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A421" t="s">
-        <v>954</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.4">
@@ -7663,12 +7660,12 @@
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A430" t="s">
-        <v>1060</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A431" t="s">
-        <v>1607</v>
+        <v>707</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.4">
@@ -7713,12 +7710,12 @@
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A440" t="s">
-        <v>716</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A441" t="s">
-        <v>1608</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.4">
@@ -7763,62 +7760,62 @@
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A450" t="s">
-        <v>1365</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A451" t="s">
-        <v>1669</v>
+        <v>43</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A452" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A453" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A454" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A455" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A456" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A457" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A458" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A459" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A460" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A461" t="s">
-        <v>305</v>
+        <v>412</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.4">
@@ -7863,12 +7860,12 @@
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A470" t="s">
-        <v>421</v>
+        <v>954</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A471" t="s">
-        <v>955</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.4">
@@ -7913,12 +7910,12 @@
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A480" t="s">
-        <v>1069</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A481" t="s">
-        <v>1609</v>
+        <v>716</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.4">
@@ -7963,12 +7960,12 @@
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A490" t="s">
-        <v>725</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A491" t="s">
-        <v>1610</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.4">
@@ -8013,62 +8010,62 @@
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A500" t="s">
-        <v>1374</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A501" t="s">
-        <v>1670</v>
+        <v>44</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A502" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A503" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A504" t="s">
-        <v>10</v>
+        <v>725</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A505" t="s">
-        <v>726</v>
+        <v>138</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A506" t="s">
-        <v>139</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A507" t="s">
-        <v>1671</v>
+        <v>205</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A508" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A509" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A510" t="s">
-        <v>272</v>
+        <v>305</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A511" t="s">
-        <v>306</v>
+        <v>421</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.4">
@@ -8113,12 +8110,12 @@
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A520" t="s">
-        <v>430</v>
+        <v>955</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A521" t="s">
-        <v>956</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.4">
@@ -8163,12 +8160,12 @@
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A530" t="s">
-        <v>1078</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A531" t="s">
-        <v>1611</v>
+        <v>726</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.4">
@@ -8213,12 +8210,12 @@
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A540" t="s">
-        <v>735</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A541" t="s">
-        <v>1612</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.4">
@@ -8263,62 +8260,62 @@
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A550" t="s">
-        <v>1383</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A551" t="s">
-        <v>1672</v>
+        <v>45</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A552" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A553" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A554" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A555" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A556" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A557" t="s">
-        <v>173</v>
+        <v>206</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A558" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A559" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A560" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A561" t="s">
-        <v>307</v>
+        <v>430</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.4">
@@ -8363,12 +8360,12 @@
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A570" t="s">
-        <v>439</v>
+        <v>956</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A571" t="s">
-        <v>957</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.4">
@@ -8413,12 +8410,12 @@
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A580" t="s">
-        <v>1087</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A581" t="s">
-        <v>1613</v>
+        <v>735</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.4">
@@ -8463,12 +8460,12 @@
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A590" t="s">
-        <v>744</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A591" t="s">
-        <v>1614</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.4">
@@ -8513,62 +8510,62 @@
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A600" t="s">
-        <v>1392</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A601" t="s">
-        <v>1673</v>
+        <v>46</v>
       </c>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A602" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A603" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A604" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A605" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A606" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A607" t="s">
-        <v>174</v>
+        <v>207</v>
       </c>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A608" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A609" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A610" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A611" t="s">
-        <v>308</v>
+        <v>439</v>
       </c>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.4">
@@ -8613,12 +8610,12 @@
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A620" t="s">
-        <v>448</v>
+        <v>957</v>
       </c>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A621" t="s">
-        <v>958</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.4">
@@ -8663,12 +8660,12 @@
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A630" t="s">
-        <v>1096</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A631" t="s">
-        <v>1615</v>
+        <v>744</v>
       </c>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.4">
@@ -8713,12 +8710,12 @@
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A640" t="s">
-        <v>753</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A641" t="s">
-        <v>1616</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.4">
@@ -8763,62 +8760,62 @@
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A650" t="s">
-        <v>1401</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A651" t="s">
-        <v>1674</v>
+        <v>47</v>
       </c>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A652" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A653" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A654" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A655" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A656" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A657" t="s">
-        <v>175</v>
+        <v>208</v>
       </c>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A658" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A659" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A660" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A661" t="s">
-        <v>309</v>
+        <v>448</v>
       </c>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.4">
@@ -8863,12 +8860,12 @@
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A670" t="s">
-        <v>457</v>
+        <v>958</v>
       </c>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A671" t="s">
-        <v>959</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.4">
@@ -8913,12 +8910,12 @@
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A680" t="s">
-        <v>1105</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A681" t="s">
-        <v>1617</v>
+        <v>753</v>
       </c>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.4">
@@ -8963,12 +8960,12 @@
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A690" t="s">
-        <v>762</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A691" t="s">
-        <v>1618</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.4">
@@ -9013,62 +9010,62 @@
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A700" t="s">
-        <v>1410</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A701" t="s">
-        <v>1675</v>
+        <v>48</v>
       </c>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A702" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A703" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A704" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A705" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A706" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A707" t="s">
-        <v>176</v>
+        <v>209</v>
       </c>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A708" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A709" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A710" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A711" t="s">
-        <v>310</v>
+        <v>457</v>
       </c>
     </row>
     <row r="712" spans="1:1" x14ac:dyDescent="0.4">
@@ -9113,12 +9110,12 @@
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A720" t="s">
-        <v>466</v>
+        <v>959</v>
       </c>
     </row>
     <row r="721" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A721" t="s">
-        <v>960</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="722" spans="1:1" x14ac:dyDescent="0.4">
@@ -9163,12 +9160,12 @@
     </row>
     <row r="730" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A730" t="s">
-        <v>1114</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A731" t="s">
-        <v>1619</v>
+        <v>762</v>
       </c>
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.4">
@@ -9213,12 +9210,12 @@
     </row>
     <row r="740" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A740" t="s">
-        <v>771</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="741" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A741" t="s">
-        <v>1620</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="742" spans="1:1" x14ac:dyDescent="0.4">
@@ -9263,62 +9260,62 @@
     </row>
     <row r="750" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A750" t="s">
-        <v>1419</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="751" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A751" t="s">
-        <v>1676</v>
+        <v>49</v>
       </c>
     </row>
     <row r="752" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A752" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
     </row>
     <row r="753" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A753" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
     </row>
     <row r="754" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A754" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
     </row>
     <row r="755" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A755" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
     </row>
     <row r="756" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A756" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
     </row>
     <row r="757" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A757" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
     </row>
     <row r="758" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A758" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
     </row>
     <row r="759" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A759" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
     </row>
     <row r="760" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A760" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
     </row>
     <row r="761" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A761" t="s">
-        <v>311</v>
+        <v>466</v>
       </c>
     </row>
     <row r="762" spans="1:1" x14ac:dyDescent="0.4">
@@ -9363,12 +9360,12 @@
     </row>
     <row r="770" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A770" t="s">
-        <v>475</v>
+        <v>960</v>
       </c>
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A771" t="s">
-        <v>961</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.4">
@@ -9413,12 +9410,12 @@
     </row>
     <row r="780" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A780" t="s">
-        <v>1123</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="781" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A781" t="s">
-        <v>1621</v>
+        <v>771</v>
       </c>
     </row>
     <row r="782" spans="1:1" x14ac:dyDescent="0.4">
@@ -9463,12 +9460,12 @@
     </row>
     <row r="790" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A790" t="s">
-        <v>780</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="791" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A791" t="s">
-        <v>1622</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="792" spans="1:1" x14ac:dyDescent="0.4">
@@ -9513,62 +9510,62 @@
     </row>
     <row r="800" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A800" t="s">
-        <v>1428</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="801" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A801" t="s">
-        <v>1677</v>
+        <v>50</v>
       </c>
     </row>
     <row r="802" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A802" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
     </row>
     <row r="803" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A803" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
     </row>
     <row r="804" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A804" t="s">
-        <v>16</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="805" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A805" t="s">
-        <v>1678</v>
+        <v>144</v>
       </c>
     </row>
     <row r="806" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A806" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
     </row>
     <row r="807" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A807" t="s">
-        <v>178</v>
+        <v>211</v>
       </c>
     </row>
     <row r="808" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A808" t="s">
-        <v>212</v>
+        <v>244</v>
       </c>
     </row>
     <row r="809" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A809" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
     </row>
     <row r="810" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A810" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
     </row>
     <row r="811" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A811" t="s">
-        <v>312</v>
+        <v>475</v>
       </c>
     </row>
     <row r="812" spans="1:1" x14ac:dyDescent="0.4">
@@ -9583,12 +9580,12 @@
     </row>
     <row r="814" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A814" t="s">
-        <v>478</v>
+        <v>780</v>
       </c>
     </row>
     <row r="815" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A815" t="s">
-        <v>781</v>
+        <v>478</v>
       </c>
     </row>
     <row r="816" spans="1:1" x14ac:dyDescent="0.4">
@@ -9613,12 +9610,12 @@
     </row>
     <row r="820" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A820" t="s">
-        <v>483</v>
+        <v>961</v>
       </c>
     </row>
     <row r="821" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A821" t="s">
-        <v>962</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="822" spans="1:1" x14ac:dyDescent="0.4">
@@ -9663,12 +9660,12 @@
     </row>
     <row r="830" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A830" t="s">
-        <v>1132</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="831" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A831" t="s">
-        <v>1623</v>
+        <v>781</v>
       </c>
     </row>
     <row r="832" spans="1:1" x14ac:dyDescent="0.4">
@@ -9713,12 +9710,12 @@
     </row>
     <row r="840" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A840" t="s">
-        <v>790</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="841" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A841" t="s">
-        <v>1624</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="842" spans="1:1" x14ac:dyDescent="0.4">
@@ -9763,7 +9760,7 @@
     </row>
     <row r="850" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A850" t="s">
-        <v>1437</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="851" spans="1:1" x14ac:dyDescent="0.4">
@@ -9773,52 +9770,52 @@
     </row>
     <row r="852" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A852" t="s">
-        <v>1680</v>
+        <v>82</v>
       </c>
     </row>
     <row r="853" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A853" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
     </row>
     <row r="854" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A854" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
     </row>
     <row r="855" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A855" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
     </row>
     <row r="856" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A856" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
     </row>
     <row r="857" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A857" t="s">
-        <v>179</v>
+        <v>212</v>
       </c>
     </row>
     <row r="858" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A858" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
     </row>
     <row r="859" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A859" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
     </row>
     <row r="860" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A860" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
     </row>
     <row r="861" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A861" t="s">
-        <v>313</v>
+        <v>483</v>
       </c>
     </row>
     <row r="862" spans="1:1" x14ac:dyDescent="0.4">
@@ -9863,12 +9860,12 @@
     </row>
     <row r="870" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A870" t="s">
-        <v>492</v>
+        <v>962</v>
       </c>
     </row>
     <row r="871" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A871" t="s">
-        <v>963</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="872" spans="1:1" x14ac:dyDescent="0.4">
@@ -9913,12 +9910,12 @@
     </row>
     <row r="880" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A880" t="s">
-        <v>1141</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="881" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A881" t="s">
-        <v>1625</v>
+        <v>790</v>
       </c>
     </row>
     <row r="882" spans="1:1" x14ac:dyDescent="0.4">
@@ -9963,12 +9960,12 @@
     </row>
     <row r="890" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A890" t="s">
-        <v>799</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="891" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A891" t="s">
-        <v>1626</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="892" spans="1:1" x14ac:dyDescent="0.4">
@@ -10013,62 +10010,62 @@
     </row>
     <row r="900" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A900" t="s">
-        <v>1446</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="901" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A901" t="s">
-        <v>1681</v>
+        <v>51</v>
       </c>
     </row>
     <row r="902" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A902" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
     </row>
     <row r="903" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A903" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
     </row>
     <row r="904" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A904" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
     </row>
     <row r="905" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A905" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
     </row>
     <row r="906" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A906" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
     </row>
     <row r="907" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A907" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
     </row>
     <row r="908" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A908" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
     </row>
     <row r="909" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A909" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
     </row>
     <row r="910" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A910" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
     </row>
     <row r="911" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A911" t="s">
-        <v>314</v>
+        <v>492</v>
       </c>
     </row>
     <row r="912" spans="1:1" x14ac:dyDescent="0.4">
@@ -10113,12 +10110,12 @@
     </row>
     <row r="920" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A920" t="s">
-        <v>501</v>
+        <v>963</v>
       </c>
     </row>
     <row r="921" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A921" t="s">
-        <v>964</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="922" spans="1:1" x14ac:dyDescent="0.4">
@@ -10163,12 +10160,12 @@
     </row>
     <row r="930" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A930" t="s">
-        <v>1150</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="931" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A931" t="s">
-        <v>1627</v>
+        <v>799</v>
       </c>
     </row>
     <row r="932" spans="1:1" x14ac:dyDescent="0.4">
@@ -10213,12 +10210,12 @@
     </row>
     <row r="940" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A940" t="s">
-        <v>808</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="941" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A941" t="s">
-        <v>1628</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="942" spans="1:1" x14ac:dyDescent="0.4">
@@ -10263,62 +10260,62 @@
     </row>
     <row r="950" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A950" t="s">
-        <v>1455</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="951" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A951" t="s">
-        <v>1682</v>
+        <v>52</v>
       </c>
     </row>
     <row r="952" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A952" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
     </row>
     <row r="953" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A953" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
     </row>
     <row r="954" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A954" t="s">
-        <v>19</v>
+        <v>114</v>
       </c>
     </row>
     <row r="955" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A955" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
     </row>
     <row r="956" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A956" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
     </row>
     <row r="957" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A957" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
     </row>
     <row r="958" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A958" t="s">
-        <v>215</v>
+        <v>247</v>
       </c>
     </row>
     <row r="959" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A959" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
     </row>
     <row r="960" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A960" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
     </row>
     <row r="961" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A961" t="s">
-        <v>315</v>
+        <v>501</v>
       </c>
     </row>
     <row r="962" spans="1:1" x14ac:dyDescent="0.4">
@@ -10363,12 +10360,12 @@
     </row>
     <row r="970" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A970" t="s">
-        <v>510</v>
+        <v>964</v>
       </c>
     </row>
     <row r="971" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A971" t="s">
-        <v>965</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="972" spans="1:1" x14ac:dyDescent="0.4">
@@ -10413,12 +10410,12 @@
     </row>
     <row r="980" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A980" t="s">
-        <v>1159</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="981" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A981" t="s">
-        <v>1629</v>
+        <v>808</v>
       </c>
     </row>
     <row r="982" spans="1:1" x14ac:dyDescent="0.4">
@@ -10463,12 +10460,12 @@
     </row>
     <row r="990" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A990" t="s">
-        <v>817</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="991" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A991" t="s">
-        <v>1630</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="992" spans="1:1" x14ac:dyDescent="0.4">
@@ -10513,62 +10510,62 @@
     </row>
     <row r="1000" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1000" t="s">
-        <v>1464</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="1001" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1001" t="s">
-        <v>1683</v>
+        <v>53</v>
       </c>
     </row>
     <row r="1002" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1002" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
     </row>
     <row r="1003" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1003" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1004" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1004" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
     </row>
     <row r="1005" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1005" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
     </row>
     <row r="1006" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1006" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
     </row>
     <row r="1007" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1007" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
     </row>
     <row r="1008" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1008" t="s">
-        <v>216</v>
+        <v>248</v>
       </c>
     </row>
     <row r="1009" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1009" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
     </row>
     <row r="1010" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1010" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
     </row>
     <row r="1011" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1011" t="s">
-        <v>316</v>
+        <v>510</v>
       </c>
     </row>
     <row r="1012" spans="1:1" x14ac:dyDescent="0.4">
@@ -10613,12 +10610,12 @@
     </row>
     <row r="1020" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1020" t="s">
-        <v>519</v>
+        <v>965</v>
       </c>
     </row>
     <row r="1021" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1021" t="s">
-        <v>966</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="1022" spans="1:1" x14ac:dyDescent="0.4">
@@ -10663,12 +10660,12 @@
     </row>
     <row r="1030" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1030" t="s">
-        <v>1168</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="1031" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1031" t="s">
-        <v>1631</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1032" spans="1:1" x14ac:dyDescent="0.4">
@@ -10713,12 +10710,12 @@
     </row>
     <row r="1040" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1040" t="s">
-        <v>826</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="1041" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1041" t="s">
-        <v>1632</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="1042" spans="1:1" x14ac:dyDescent="0.4">
@@ -10763,62 +10760,62 @@
     </row>
     <row r="1050" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1050" t="s">
-        <v>1473</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="1051" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1051" t="s">
-        <v>1684</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1052" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1052" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1053" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1053" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1054" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1054" t="s">
-        <v>21</v>
+        <v>116</v>
       </c>
     </row>
     <row r="1055" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1055" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1056" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1056" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
     </row>
     <row r="1057" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1057" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
     </row>
     <row r="1058" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1058" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
     </row>
     <row r="1059" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1059" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
     </row>
     <row r="1060" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1060" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
     </row>
     <row r="1061" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1061" t="s">
-        <v>317</v>
+        <v>519</v>
       </c>
     </row>
     <row r="1062" spans="1:1" x14ac:dyDescent="0.4">
@@ -10863,12 +10860,12 @@
     </row>
     <row r="1070" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1070" t="s">
-        <v>528</v>
+        <v>966</v>
       </c>
     </row>
     <row r="1071" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1071" t="s">
-        <v>967</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="1072" spans="1:1" x14ac:dyDescent="0.4">
@@ -10913,12 +10910,12 @@
     </row>
     <row r="1080" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1080" t="s">
-        <v>1177</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="1081" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1081" t="s">
-        <v>1633</v>
+        <v>826</v>
       </c>
     </row>
     <row r="1082" spans="1:1" x14ac:dyDescent="0.4">
@@ -10963,12 +10960,12 @@
     </row>
     <row r="1090" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1090" t="s">
-        <v>835</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="1091" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1091" t="s">
-        <v>1634</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="1092" spans="1:1" x14ac:dyDescent="0.4">
@@ -11013,62 +11010,62 @@
     </row>
     <row r="1100" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1100" t="s">
-        <v>1482</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="1101" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1101" t="s">
-        <v>1685</v>
+        <v>528</v>
       </c>
     </row>
     <row r="1102" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1102" t="s">
-        <v>529</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1103" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1103" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1104" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1104" t="s">
-        <v>22</v>
+        <v>117</v>
       </c>
     </row>
     <row r="1105" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1105" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
     </row>
     <row r="1106" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1106" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
     </row>
     <row r="1107" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1107" t="s">
-        <v>184</v>
+        <v>217</v>
       </c>
     </row>
     <row r="1108" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1108" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
     </row>
     <row r="1109" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1109" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
     </row>
     <row r="1110" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1110" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
     </row>
     <row r="1111" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1111" t="s">
-        <v>318</v>
+        <v>529</v>
       </c>
     </row>
     <row r="1112" spans="1:1" x14ac:dyDescent="0.4">
@@ -11113,12 +11110,12 @@
     </row>
     <row r="1120" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1120" t="s">
-        <v>538</v>
+        <v>967</v>
       </c>
     </row>
     <row r="1121" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1121" t="s">
-        <v>968</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="1122" spans="1:1" x14ac:dyDescent="0.4">
@@ -11163,12 +11160,12 @@
     </row>
     <row r="1130" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1130" t="s">
-        <v>1186</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="1131" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1131" t="s">
-        <v>1635</v>
+        <v>835</v>
       </c>
     </row>
     <row r="1132" spans="1:1" x14ac:dyDescent="0.4">
@@ -11213,12 +11210,12 @@
     </row>
     <row r="1140" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1140" t="s">
-        <v>844</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="1141" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1141" t="s">
-        <v>1636</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="1142" spans="1:1" x14ac:dyDescent="0.4">
@@ -11263,62 +11260,62 @@
     </row>
     <row r="1150" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1150" t="s">
-        <v>1491</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="1151" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1151" t="s">
-        <v>1686</v>
+        <v>55</v>
       </c>
     </row>
     <row r="1152" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1152" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
     </row>
     <row r="1153" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1153" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1154" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1154" t="s">
-        <v>23</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="1155" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1155" t="s">
-        <v>1687</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1156" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1156" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
     </row>
     <row r="1157" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1157" t="s">
-        <v>185</v>
+        <v>218</v>
       </c>
     </row>
     <row r="1158" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1158" t="s">
-        <v>219</v>
+        <v>844</v>
       </c>
     </row>
     <row r="1159" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1159" t="s">
-        <v>845</v>
+        <v>284</v>
       </c>
     </row>
     <row r="1160" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1160" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
     </row>
     <row r="1161" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1161" t="s">
-        <v>319</v>
+        <v>538</v>
       </c>
     </row>
     <row r="1162" spans="1:1" x14ac:dyDescent="0.4">
@@ -11363,12 +11360,12 @@
     </row>
     <row r="1170" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1170" t="s">
-        <v>547</v>
+        <v>968</v>
       </c>
     </row>
     <row r="1171" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1171" t="s">
-        <v>969</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="1172" spans="1:1" x14ac:dyDescent="0.4">
@@ -11413,12 +11410,12 @@
     </row>
     <row r="1180" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1180" t="s">
-        <v>1195</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="1181" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1181" t="s">
-        <v>1637</v>
+        <v>845</v>
       </c>
     </row>
     <row r="1182" spans="1:1" x14ac:dyDescent="0.4">
@@ -11463,12 +11460,12 @@
     </row>
     <row r="1190" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1190" t="s">
-        <v>854</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1191" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1191" t="s">
-        <v>1638</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="1192" spans="1:1" x14ac:dyDescent="0.4">
@@ -11513,62 +11510,62 @@
     </row>
     <row r="1200" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1200" t="s">
-        <v>1500</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="1201" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1201" t="s">
-        <v>1688</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1202" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1202" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1203" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1203" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1204" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1204" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
     </row>
     <row r="1205" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1205" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1206" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1206" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
     </row>
     <row r="1207" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1207" t="s">
-        <v>186</v>
+        <v>219</v>
       </c>
     </row>
     <row r="1208" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1208" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
     </row>
     <row r="1209" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1209" t="s">
-        <v>252</v>
+        <v>285</v>
       </c>
     </row>
     <row r="1210" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1210" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
     </row>
     <row r="1211" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1211" t="s">
-        <v>320</v>
+        <v>547</v>
       </c>
     </row>
     <row r="1212" spans="1:1" x14ac:dyDescent="0.4">
@@ -11578,12 +11575,12 @@
     </row>
     <row r="1213" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1213" t="s">
-        <v>549</v>
+        <v>488</v>
       </c>
     </row>
     <row r="1214" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1214" t="s">
-        <v>489</v>
+        <v>549</v>
       </c>
     </row>
     <row r="1215" spans="1:1" x14ac:dyDescent="0.4">
@@ -11613,12 +11610,12 @@
     </row>
     <row r="1220" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1220" t="s">
-        <v>555</v>
+        <v>969</v>
       </c>
     </row>
     <row r="1221" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1221" t="s">
-        <v>970</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="1222" spans="1:1" x14ac:dyDescent="0.4">
@@ -11663,12 +11660,12 @@
     </row>
     <row r="1230" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1230" t="s">
-        <v>1204</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="1231" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1231" t="s">
-        <v>1639</v>
+        <v>854</v>
       </c>
     </row>
     <row r="1232" spans="1:1" x14ac:dyDescent="0.4">
@@ -11713,12 +11710,12 @@
     </row>
     <row r="1240" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1240" t="s">
-        <v>863</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="1241" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1241" t="s">
-        <v>1640</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="1242" spans="1:1" x14ac:dyDescent="0.4">
@@ -11763,62 +11760,62 @@
     </row>
     <row r="1250" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1250" t="s">
-        <v>1509</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="1251" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1251" t="s">
-        <v>1689</v>
+        <v>57</v>
       </c>
     </row>
     <row r="1252" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1252" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1253" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1253" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1254" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1254" t="s">
-        <v>25</v>
+        <v>119</v>
       </c>
     </row>
     <row r="1255" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1255" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
     </row>
     <row r="1256" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1256" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
     </row>
     <row r="1257" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1257" t="s">
-        <v>187</v>
+        <v>220</v>
       </c>
     </row>
     <row r="1258" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1258" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
     </row>
     <row r="1259" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1259" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
     </row>
     <row r="1260" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1260" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
     </row>
     <row r="1261" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1261" t="s">
-        <v>321</v>
+        <v>555</v>
       </c>
     </row>
     <row r="1262" spans="1:1" x14ac:dyDescent="0.4">
@@ -11863,12 +11860,12 @@
     </row>
     <row r="1270" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1270" t="s">
-        <v>564</v>
+        <v>970</v>
       </c>
     </row>
     <row r="1271" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1271" t="s">
-        <v>971</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="1272" spans="1:1" x14ac:dyDescent="0.4">
@@ -11913,12 +11910,12 @@
     </row>
     <row r="1280" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1280" t="s">
-        <v>1213</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="1281" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1281" t="s">
-        <v>1641</v>
+        <v>863</v>
       </c>
     </row>
     <row r="1282" spans="1:1" x14ac:dyDescent="0.4">
@@ -11963,12 +11960,12 @@
     </row>
     <row r="1290" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1290" t="s">
-        <v>872</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="1291" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1291" t="s">
-        <v>1642</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="1292" spans="1:1" x14ac:dyDescent="0.4">
@@ -12013,62 +12010,62 @@
     </row>
     <row r="1300" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1300" t="s">
-        <v>1518</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="1301" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1301" t="s">
-        <v>1690</v>
+        <v>58</v>
       </c>
     </row>
     <row r="1302" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1302" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
     </row>
     <row r="1303" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1303" t="s">
-        <v>91</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1304" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1304" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
     </row>
     <row r="1305" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1305" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
     </row>
     <row r="1306" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1306" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
     </row>
     <row r="1307" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1307" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
     </row>
     <row r="1308" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1308" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
     </row>
     <row r="1309" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1309" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
     </row>
     <row r="1310" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1310" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
     </row>
     <row r="1311" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1311" t="s">
-        <v>322</v>
+        <v>564</v>
       </c>
     </row>
     <row r="1312" spans="1:1" x14ac:dyDescent="0.4">
@@ -12113,12 +12110,12 @@
     </row>
     <row r="1320" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1320" t="s">
-        <v>573</v>
+        <v>971</v>
       </c>
     </row>
     <row r="1321" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1321" t="s">
-        <v>972</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="1322" spans="1:1" x14ac:dyDescent="0.4">
@@ -12143,12 +12140,12 @@
     </row>
     <row r="1326" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1326" t="s">
-        <v>1218</v>
+        <v>965</v>
       </c>
     </row>
     <row r="1327" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1327" t="s">
-        <v>966</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="1328" spans="1:1" x14ac:dyDescent="0.4">
@@ -12163,12 +12160,12 @@
     </row>
     <row r="1330" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1330" t="s">
-        <v>1221</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="1331" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1331" t="s">
-        <v>1643</v>
+        <v>872</v>
       </c>
     </row>
     <row r="1332" spans="1:1" x14ac:dyDescent="0.4">
@@ -12213,12 +12210,12 @@
     </row>
     <row r="1340" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1340" t="s">
-        <v>881</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="1341" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1341" t="s">
-        <v>1644</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="1342" spans="1:1" x14ac:dyDescent="0.4">
@@ -12263,62 +12260,62 @@
     </row>
     <row r="1350" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1350" t="s">
-        <v>1527</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="1351" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1351" t="s">
-        <v>1691</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1352" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1352" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
     </row>
     <row r="1353" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1353" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1354" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1354" t="s">
-        <v>27</v>
+        <v>121</v>
       </c>
     </row>
     <row r="1355" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1355" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
     </row>
     <row r="1356" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1356" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
     </row>
     <row r="1357" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1357" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
     </row>
     <row r="1358" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1358" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
     </row>
     <row r="1359" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1359" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
     </row>
     <row r="1360" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1360" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
     </row>
     <row r="1361" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1361" t="s">
-        <v>323</v>
+        <v>573</v>
       </c>
     </row>
     <row r="1362" spans="1:1" x14ac:dyDescent="0.4">
@@ -12363,12 +12360,12 @@
     </row>
     <row r="1370" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1370" t="s">
-        <v>582</v>
+        <v>972</v>
       </c>
     </row>
     <row r="1371" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1371" t="s">
-        <v>973</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="1372" spans="1:1" x14ac:dyDescent="0.4">
@@ -12413,12 +12410,12 @@
     </row>
     <row r="1380" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1380" t="s">
-        <v>1230</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="1381" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1381" t="s">
-        <v>1645</v>
+        <v>881</v>
       </c>
     </row>
     <row r="1382" spans="1:1" x14ac:dyDescent="0.4">
@@ -12463,12 +12460,12 @@
     </row>
     <row r="1390" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1390" t="s">
-        <v>890</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="1391" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1391" t="s">
-        <v>1646</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="1392" spans="1:1" x14ac:dyDescent="0.4">
@@ -12513,62 +12510,62 @@
     </row>
     <row r="1400" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1400" t="s">
-        <v>1536</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="1401" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1401" t="s">
-        <v>1692</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1402" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1402" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
     </row>
     <row r="1403" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1403" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1404" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1404" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
     </row>
     <row r="1405" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1405" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
     </row>
     <row r="1406" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1406" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
     </row>
     <row r="1407" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1407" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
     </row>
     <row r="1408" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1408" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
     </row>
     <row r="1409" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1409" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
     </row>
     <row r="1410" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1410" t="s">
-        <v>290</v>
+        <v>323</v>
       </c>
     </row>
     <row r="1411" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1411" t="s">
-        <v>324</v>
+        <v>582</v>
       </c>
     </row>
     <row r="1412" spans="1:1" x14ac:dyDescent="0.4">
@@ -12613,12 +12610,12 @@
     </row>
     <row r="1420" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1420" t="s">
-        <v>591</v>
+        <v>973</v>
       </c>
     </row>
     <row r="1421" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1421" t="s">
-        <v>974</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="1422" spans="1:1" x14ac:dyDescent="0.4">
@@ -12663,12 +12660,12 @@
     </row>
     <row r="1430" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1430" t="s">
-        <v>1239</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="1431" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1431" t="s">
-        <v>1647</v>
+        <v>890</v>
       </c>
     </row>
     <row r="1432" spans="1:1" x14ac:dyDescent="0.4">
@@ -12713,12 +12710,12 @@
     </row>
     <row r="1440" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1440" t="s">
-        <v>899</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="1441" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1441" t="s">
-        <v>1648</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="1442" spans="1:1" x14ac:dyDescent="0.4">
@@ -12763,62 +12760,62 @@
     </row>
     <row r="1450" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1450" t="s">
-        <v>1545</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="1451" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1451" t="s">
-        <v>1693</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1452" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1452" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
     </row>
     <row r="1453" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1453" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1454" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1454" t="s">
-        <v>29</v>
+        <v>123</v>
       </c>
     </row>
     <row r="1455" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1455" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
     </row>
     <row r="1456" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1456" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
     </row>
     <row r="1457" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1457" t="s">
-        <v>191</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="1458" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1458" t="s">
-        <v>1694</v>
+        <v>256</v>
       </c>
     </row>
     <row r="1459" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1459" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
     </row>
     <row r="1460" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1460" t="s">
-        <v>291</v>
+        <v>324</v>
       </c>
     </row>
     <row r="1461" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1461" t="s">
-        <v>325</v>
+        <v>591</v>
       </c>
     </row>
     <row r="1462" spans="1:1" x14ac:dyDescent="0.4">
@@ -12858,17 +12855,17 @@
     </row>
     <row r="1469" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1469" t="s">
-        <v>599</v>
+        <v>899</v>
       </c>
     </row>
     <row r="1470" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1470" t="s">
-        <v>900</v>
+        <v>974</v>
       </c>
     </row>
     <row r="1471" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1471" t="s">
-        <v>975</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="1472" spans="1:1" x14ac:dyDescent="0.4">
@@ -12913,12 +12910,12 @@
     </row>
     <row r="1480" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1480" t="s">
-        <v>1248</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="1481" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1481" t="s">
-        <v>1649</v>
+        <v>900</v>
       </c>
     </row>
     <row r="1482" spans="1:1" x14ac:dyDescent="0.4">
@@ -12963,12 +12960,12 @@
     </row>
     <row r="1490" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1490" t="s">
-        <v>909</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="1491" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1491" t="s">
-        <v>1650</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="1492" spans="1:1" x14ac:dyDescent="0.4">
@@ -13013,62 +13010,62 @@
     </row>
     <row r="1500" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1500" t="s">
-        <v>1554</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="1501" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1501" t="s">
-        <v>1695</v>
+        <v>62</v>
       </c>
     </row>
     <row r="1502" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1502" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
     </row>
     <row r="1503" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1503" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1504" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1504" t="s">
-        <v>30</v>
+        <v>124</v>
       </c>
     </row>
     <row r="1505" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1505" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
     </row>
     <row r="1506" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1506" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
     </row>
     <row r="1507" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1507" t="s">
-        <v>192</v>
+        <v>224</v>
       </c>
     </row>
     <row r="1508" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1508" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
     </row>
     <row r="1509" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1509" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
     </row>
     <row r="1510" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1510" t="s">
-        <v>292</v>
+        <v>325</v>
       </c>
     </row>
     <row r="1511" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1511" t="s">
-        <v>326</v>
+        <v>599</v>
       </c>
     </row>
     <row r="1512" spans="1:1" x14ac:dyDescent="0.4">
@@ -13113,12 +13110,12 @@
     </row>
     <row r="1520" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1520" t="s">
-        <v>608</v>
+        <v>975</v>
       </c>
     </row>
     <row r="1521" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1521" t="s">
-        <v>976</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1522" spans="1:1" x14ac:dyDescent="0.4">
@@ -13163,12 +13160,12 @@
     </row>
     <row r="1530" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1530" t="s">
-        <v>1257</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="1531" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1531" t="s">
-        <v>1651</v>
+        <v>909</v>
       </c>
     </row>
     <row r="1532" spans="1:1" x14ac:dyDescent="0.4">
@@ -13213,12 +13210,12 @@
     </row>
     <row r="1540" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1540" t="s">
-        <v>918</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="1541" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1541" t="s">
-        <v>1652</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="1542" spans="1:1" x14ac:dyDescent="0.4">
@@ -13263,62 +13260,62 @@
     </row>
     <row r="1550" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1550" t="s">
-        <v>1563</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="1551" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1551" t="s">
-        <v>1696</v>
+        <v>63</v>
       </c>
     </row>
     <row r="1552" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1552" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
     </row>
     <row r="1553" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1553" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1554" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1554" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
     </row>
     <row r="1555" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1555" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
     </row>
     <row r="1556" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1556" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
     </row>
     <row r="1557" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1557" t="s">
-        <v>193</v>
+        <v>225</v>
       </c>
     </row>
     <row r="1558" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1558" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
     </row>
     <row r="1559" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1559" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
     </row>
     <row r="1560" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1560" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
     </row>
     <row r="1561" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1561" t="s">
-        <v>327</v>
+        <v>608</v>
       </c>
     </row>
     <row r="1562" spans="1:1" x14ac:dyDescent="0.4">
@@ -13363,12 +13360,12 @@
     </row>
     <row r="1570" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1570" t="s">
-        <v>617</v>
+        <v>976</v>
       </c>
     </row>
     <row r="1571" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1571" t="s">
-        <v>977</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="1572" spans="1:1" x14ac:dyDescent="0.4">
@@ -13413,12 +13410,12 @@
     </row>
     <row r="1580" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1580" t="s">
-        <v>1266</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="1581" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1581" t="s">
-        <v>1653</v>
+        <v>918</v>
       </c>
     </row>
     <row r="1582" spans="1:1" x14ac:dyDescent="0.4">
@@ -13463,12 +13460,12 @@
     </row>
     <row r="1590" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1590" t="s">
-        <v>927</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="1591" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1591" t="s">
-        <v>1654</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="1592" spans="1:1" x14ac:dyDescent="0.4">
@@ -13513,62 +13510,62 @@
     </row>
     <row r="1600" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1600" t="s">
-        <v>1572</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="1601" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1601" t="s">
-        <v>1697</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1602" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1602" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
     </row>
     <row r="1603" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1603" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1604" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1604" t="s">
-        <v>32</v>
+        <v>126</v>
       </c>
     </row>
     <row r="1605" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1605" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
     </row>
     <row r="1606" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1606" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
     </row>
     <row r="1607" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1607" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
     </row>
     <row r="1608" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1608" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
     </row>
     <row r="1609" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1609" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
     </row>
     <row r="1610" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1610" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
     </row>
     <row r="1611" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1611" t="s">
-        <v>328</v>
+        <v>617</v>
       </c>
     </row>
     <row r="1612" spans="1:1" x14ac:dyDescent="0.4">
@@ -13613,12 +13610,12 @@
     </row>
     <row r="1620" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1620" t="s">
-        <v>626</v>
+        <v>977</v>
       </c>
     </row>
     <row r="1621" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1621" t="s">
-        <v>978</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1622" spans="1:1" x14ac:dyDescent="0.4">
@@ -13663,12 +13660,12 @@
     </row>
     <row r="1630" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1630" t="s">
-        <v>1275</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="1631" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1631" t="s">
-        <v>1655</v>
+        <v>927</v>
       </c>
     </row>
     <row r="1632" spans="1:1" x14ac:dyDescent="0.4">
@@ -13713,12 +13710,12 @@
     </row>
     <row r="1640" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1640" t="s">
-        <v>936</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="1641" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1641" t="s">
-        <v>1656</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="1642" spans="1:1" x14ac:dyDescent="0.4">
@@ -13763,62 +13760,62 @@
     </row>
     <row r="1650" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1650" t="s">
-        <v>1581</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="1651" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1651" t="s">
-        <v>1698</v>
+        <v>65</v>
       </c>
     </row>
     <row r="1652" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1652" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
     </row>
     <row r="1653" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1653" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1654" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1654" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
     </row>
     <row r="1655" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1655" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
     </row>
     <row r="1656" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1656" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
     </row>
     <row r="1657" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1657" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
     </row>
     <row r="1658" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1658" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
     </row>
     <row r="1659" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1659" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
     </row>
     <row r="1660" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1660" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
     </row>
     <row r="1661" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1661" t="s">
-        <v>329</v>
+        <v>626</v>
       </c>
     </row>
     <row r="1662" spans="1:1" x14ac:dyDescent="0.4">
@@ -13863,12 +13860,12 @@
     </row>
     <row r="1670" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1670" t="s">
-        <v>635</v>
+        <v>978</v>
       </c>
     </row>
     <row r="1671" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1671" t="s">
-        <v>979</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="1672" spans="1:1" x14ac:dyDescent="0.4">
@@ -13913,12 +13910,12 @@
     </row>
     <row r="1680" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1680" t="s">
-        <v>1284</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="1681" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1681" t="s">
-        <v>1657</v>
+        <v>936</v>
       </c>
     </row>
     <row r="1682" spans="1:1" x14ac:dyDescent="0.4">
@@ -13963,12 +13960,12 @@
     </row>
     <row r="1690" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1690" t="s">
-        <v>945</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="1691" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1691" t="s">
-        <v>1658</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="1692" spans="1:1" x14ac:dyDescent="0.4">
@@ -14013,12 +14010,7 @@
     </row>
     <row r="1700" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1700" t="s">
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="1701" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A1701" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
   </sheetData>
